--- a/config_2.9/activity_ty_task_config.xlsx
+++ b/config_2.9/activity_ty_task_config.xlsx
@@ -508,32 +508,32 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>act_khfl_044</t>
+    <t>yxfl_bg_1</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天领金币</t>
+  </si>
+  <si>
+    <t>天天领金币_cjj</t>
+  </si>
+  <si>
+    <t>act_xyxfl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>act_khfl_044_cjj</t>
+    <t>act_xyxfl_cjj</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>yxfl_bg_1</t>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天天领金币</t>
-  </si>
-  <si>
-    <t>天天领金币_cjj</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1060,13 +1060,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>85</v>
-      </c>
       <c r="D2" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E2" s="25">
         <v>1</v>
@@ -1079,13 +1079,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3" s="31">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="26">
         <v>1</v>
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="30">
         <v>1</v>
@@ -1307,7 +1307,7 @@
         <v>48</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L2" s="11"/>
       <c r="N2" s="11"/>
@@ -1339,7 +1339,7 @@
         <v>48</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -1373,7 +1373,7 @@
         <v>52</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1405,7 +1405,7 @@
         <v>38</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -1437,7 +1437,7 @@
         <v>39</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1466,10 +1466,10 @@
         <v>49</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -1502,7 +1502,7 @@
         <v>38</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1528,7 +1528,7 @@
         <v>60</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1554,7 +1554,7 @@
         <v>39</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
